--- a/Crawling/crawling_data/day_genie/day_genie_20220102.xlsx
+++ b/Crawling/crawling_data/day_genie/day_genie_20220102.xlsx
@@ -190,8 +190,7 @@
     <t>내 손을 잡아</t>
   </si>
   <si>
-    <t>19금
-                                    Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
+    <t>Peaches (Feat. Daniel Caesar &amp; Giveon)</t>
   </si>
   <si>
     <t>All I Want for Christmas Is You</t>
